--- a/data/excel/Robinson Crusoe (version 2)/CHAPTER 12.xlsx
+++ b/data/excel/Robinson Crusoe (version 2)/CHAPTER 12.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCutAudio\ExcelFile\Robinson Crusoe (version 2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataBackUpOnGitHub\CutAudio\CutAudio.github.io\data\excel\Robinson Crusoe (version 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t xml:space="preserve">  While this was doing, I was not altogether careless of my other affairs; for I had a great concern upon me for my little herd of goats: they were not only a ready supply to me on every occasion, and began to be sufficient for me, without the expense of powder and shot, but also without the fatigue of hunting after the wild ones; and I was loath to lose the advantage of them, and to have them all to nurse up over again.</t>
   </si>
@@ -152,9 +152,6 @@
     <t>It is certain these people do not commit this as a crime; it is not against their own consciences reproving, or their light reproaching them; they do not know it to be an offence, and then commit it in defiance of divine justice, as we do in almost all the sins we commit.</t>
   </si>
   <si>
-    <t>They think it no more a crime to kill a captive taken in war than we do to kill an ox; or to eat human flesh than we do to eat mutton.”  When I considered this a little, it followed necessarily that I was certainly in the wrong; that these people were not murderers, in the sense that I had before condemned them in my thoughts, any more than those Christians were murderers who often put to death the prisoners taken in battle; or more frequently, upon many occasions, put whole troops of men to the sword, without giving quarter, though they threw down their arms and submitted.</t>
-  </si>
-  <si>
     <t>In the next place, it occurred to me that although the usage they gave one another was thus brutish and inhuman, yet it was really nothing to me: these people had done me no injury: that if they attempted, or I saw it necessary, for my immediate preservation, to fall upon them, something might be said for it: but that I was yet out of their power, and they really had no knowledge of me, and consequently no design upon me; and therefore it could not be just for me to fall upon them; that this would justify the conduct of the Spaniards in all their barbarities practised in America, where they destroyed millions of these people; who, however they were idolators and barbarians, and had several bloody and barbarous rites in their customs, such as sacrificing human bodies to their idols, were yet, as to the Spaniards, very innocent people; and that the rooting them out of the country is spoken of with the utmost abhorrence and detestation by even the Spaniards themselves at this time, and by all other Christian nations of Europe, as a mere butchery, a bloody and unnatural piece of cruelty, unjustifiable either to God or man; and for which the very name of a Spaniard is reckoned to be frightful and terrible, to all people of humanity or of Christian compassion; as if the kingdom of Spain were particularly eminent for the produce of a race of men who were without principles of tenderness, or the common bowels of pity to the miserable, which is reckoned to be a mark of generous temper in the mind.</t>
   </si>
   <si>
@@ -288,6 +285,12 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When I considered this a little, it followed necessarily that I was certainly in the wrong; that these people were not murderers, in the sense that I had before condemned them in my thoughts, any more than those Christians were murderers who often put to death the prisoners taken in battle; or more frequently, upon many occasions, put whole troops of men to the sword, without giving quarter, though they threw down their arms and submitted.</t>
+  </si>
+  <si>
+    <t>They think it no more a crime to kill a captive taken in war than we do to kill an ox; or to eat human flesh than we do to eat mutton.”</t>
   </si>
 </sst>
 </file>
@@ -605,20 +608,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A87"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +965,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +973,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +981,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -986,7 +989,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,7 +997,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,7 +1005,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1010,7 +1013,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1018,7 +1021,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1026,7 +1029,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1034,7 +1037,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1042,7 +1045,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1050,7 +1053,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1058,7 +1061,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1066,7 +1069,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1074,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1082,7 +1085,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1090,7 +1093,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1098,7 +1101,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,7 +1109,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,7 +1117,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1125,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +1133,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1138,7 +1141,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1146,7 +1149,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1154,7 +1157,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1162,7 +1165,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1170,7 +1173,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,7 +1181,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,7 +1189,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,7 +1197,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1202,7 +1205,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1210,7 +1213,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1218,7 +1221,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1226,7 +1229,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1234,7 +1237,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1242,7 +1245,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,7 +1253,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1258,7 +1261,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1266,7 +1269,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1274,7 +1277,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1282,7 +1285,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1290,7 +1293,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1298,7 +1301,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1306,7 +1309,15 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
